--- a/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/sszw_vorlage.xlsx
+++ b/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/sszw_vorlage.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SB\set\java\bundles\org.eclipse.set.feature\rootdir\data\export\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse\PlanPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A943E7-744B-4743-B996-935D1C184D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996FCCA4-D6E1-4B8E-8504-74DCC5FEEE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sszw_Beispielbefüllung" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sszw_Beispielbefüllung!$A$1:$O$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sszw_Beispielbefüllung!$A$1:$P$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sszw_Beispielbefüllung!$A:$B,Sszw_Beispielbefüllung!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>A</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Art</t>
   </si>
   <si>
-    <t>Bauform</t>
-  </si>
-  <si>
     <t>Standort</t>
   </si>
   <si>
@@ -128,8 +125,15 @@
     <t>O</t>
   </si>
   <si>
-    <t>keine Übertrag.
+    <t>Form</t>
+  </si>
+  <si>
+    <t>keine
+Übertrag.
 an RBC</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -963,22 +967,22 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" style="16" customWidth="1"/>
-    <col min="7" max="12" width="11.42578125" style="16" customWidth="1"/>
-    <col min="13" max="14" width="13.28515625" style="16" customWidth="1"/>
-    <col min="15" max="15" width="11" style="20" customWidth="1"/>
-    <col min="16" max="16" width="45.42578125" style="16" customWidth="1"/>
-    <col min="17" max="16384" width="11.28515625" style="16"/>
+    <col min="1" max="1" width="3.33203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="10" style="16" customWidth="1"/>
+    <col min="3" max="3" width="4.77734375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" style="16" customWidth="1"/>
+    <col min="5" max="14" width="10" style="16" customWidth="1"/>
+    <col min="15" max="15" width="10" style="20" customWidth="1"/>
+    <col min="16" max="16" width="35.109375" style="16" customWidth="1"/>
+    <col min="17" max="16384" width="10.88671875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1022,10 +1026,10 @@
         <v>14</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="29" t="s">
         <v>15</v>
@@ -1037,13 +1041,13 @@
       <c r="G2" s="31"/>
       <c r="H2" s="30"/>
       <c r="I2" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2" s="31"/>
       <c r="K2" s="31"/>
       <c r="L2" s="30"/>
       <c r="M2" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N2" s="30"/>
       <c r="O2" s="37" t="s">
@@ -1053,105 +1057,109 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="33"/>
       <c r="G3" s="34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="35"/>
       <c r="I3" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" s="34"/>
       <c r="K3" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L3" s="35"/>
       <c r="M3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="28" t="s">
         <v>29</v>
-      </c>
-      <c r="N3" s="28" t="s">
-        <v>30</v>
       </c>
       <c r="O3" s="38"/>
       <c r="P3" s="17"/>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="G4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="I4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>24</v>
-      </c>
       <c r="K4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>24</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="8"/>
-      <c r="O4" s="18"/>
+      <c r="O4" s="38"/>
       <c r="P4" s="18"/>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" s="1" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
       <c r="D5" s="9"/>
       <c r="E5" s="7"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="10"/>
+      <c r="G5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="I5" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="9"/>
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
     </row>
-    <row r="6" spans="1:16" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="21"/>
       <c r="C6" s="22"/>
       <c r="D6" s="23"/>
@@ -1167,7 +1175,7 @@
       <c r="N6" s="24"/>
       <c r="O6" s="21"/>
     </row>
-    <row r="7" spans="1:16" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25"/>
       <c r="C7" s="1"/>
       <c r="D7" s="26"/>
@@ -1185,7 +1193,7 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="O2:O4"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="E3:F3"/>
@@ -1202,19 +1210,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E758A0F93049BE4CAD441F10C0D8186D" ma:contentTypeVersion="5" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fb340e34ecc5d059b634082484788e96">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="576ce185-3b2e-4f75-8b7c-efeb82226bea" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v3/fields" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae5cd419a40dc0c21009e0c04d2bd83e" ns2:_="" ns3:_="">
     <xsd:import namespace="576ce185-3b2e-4f75-8b7c-efeb82226bea"/>
@@ -1406,6 +1401,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
@@ -1453,22 +1461,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52AA9053-CA78-458B-BFEC-B0A103F9F68C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF743650-405A-4EB5-9BE5-79180E38FBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B642628-E0AC-4F61-AC13-56E3126AE48A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1487,6 +1479,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF743650-405A-4EB5-9BE5-79180E38FBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52AA9053-CA78-458B-BFEC-B0A103F9F68C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9CFCEAE-5A31-4E8D-871E-0FEB90E546B0}">
   <ds:schemaRefs>
